--- a/inputs/loginPass.xlsx
+++ b/inputs/loginPass.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -31,58 +31,31 @@
     <t xml:space="preserve">status</t>
   </si>
   <si>
-    <t xml:space="preserve">admin1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pass9</t>
+    <t xml:space="preserve">student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password130</t>
   </si>
 </sst>
 </file>
@@ -97,6 +70,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -118,6 +92,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,12 +150,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -201,15 +180,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.92"/>
   </cols>
@@ -226,75 +205,91 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/loginPass.xlsx
+++ b/inputs/loginPass.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -37,25 +37,52 @@
     <t xml:space="preserve">Password12</t>
   </si>
   <si>
+    <t xml:space="preserve">Student</t>
+  </si>
+  <si>
     <t xml:space="preserve">Password124</t>
   </si>
   <si>
+    <t xml:space="preserve">STUDENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Password125</t>
   </si>
   <si>
+    <t xml:space="preserve">students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">123Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDENTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sTUDENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password126</t>
+  </si>
+  <si>
     <t xml:space="preserve">Password123</t>
   </si>
   <si>
-    <t xml:space="preserve">Password126</t>
+    <t xml:space="preserve">studentS</t>
   </si>
   <si>
     <t xml:space="preserve">Password128</t>
   </si>
   <si>
+    <t xml:space="preserve">student’s</t>
+  </si>
+  <si>
     <t xml:space="preserve">Password129</t>
   </si>
   <si>
-    <t xml:space="preserve">Password130</t>
+    <t xml:space="preserve">Password1304</t>
   </si>
 </sst>
 </file>
@@ -182,11 +209,11 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.94"/>
@@ -214,50 +241,50 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -265,23 +292,23 @@
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,7 +316,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
